--- a/스키마 폼_김수진.xlsx
+++ b/스키마 폼_김수진.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codvill\Desktop\커리큘럼\신규 new\new_8-23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codvill\Desktop\커리큘럼\신규 new\pj\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C38BCE-F88B-401E-B3E4-22876E0781DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87968F9C-4F83-4417-BEA3-D90BC936DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1080" windowWidth="26310" windowHeight="13785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구성" sheetId="19" r:id="rId1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>300글자 제한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>작성자 ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -299,10 +295,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사용여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>잠금횟수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -327,10 +319,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사용:y , 미사용: n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0:관리자. 1:일반유저</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -508,6 +496,18 @@
   </si>
   <si>
     <t>UUID 파일 저장명으로 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠금상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠금:y , 풀림: n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800바이트 제한</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1107,22 +1107,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1130,17 +1130,17 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1151,10 +1151,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="2" t="s">
@@ -1169,15 +1169,15 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="7">
@@ -1190,15 +1190,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
@@ -1211,15 +1211,15 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
@@ -1232,15 +1232,15 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1475,22 +1475,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1498,10 +1498,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -1511,7 +1511,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1519,10 +1519,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -1532,7 +1532,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1816,22 +1816,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1839,22 +1839,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1862,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -1875,7 +1875,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1883,20 +1883,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -2167,21 +2167,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2192,19 +2192,19 @@
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2371,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -2504,19 +2504,19 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2524,10 +2524,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="2" t="s">
@@ -2544,15 +2544,15 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>25</v>
@@ -2565,10 +2565,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
@@ -2586,15 +2586,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>23</v>
@@ -2607,15 +2607,15 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>23</v>
@@ -2628,20 +2628,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2649,22 +2649,22 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2672,22 +2672,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2695,10 +2695,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -2899,22 +2899,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2922,21 +2922,21 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2944,10 +2944,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2967,15 +2967,15 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>25</v>
@@ -2991,14 +2991,14 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3129,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3262,19 +3262,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="2" t="s">
@@ -3305,7 +3305,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -3315,7 +3315,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3326,14 +3326,14 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -3354,14 +3354,14 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3377,7 +3377,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2">

--- a/스키마 폼_김수진.xlsx
+++ b/스키마 폼_김수진.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codvill\Desktop\커리큘럼\신규 new\pj\ERP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87968F9C-4F83-4417-BEA3-D90BC936DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="구성" sheetId="19" r:id="rId1"/>
@@ -503,18 +497,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>잠금:y , 풀림: n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>800바이트 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용:y , 잠금: n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -691,9 +685,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -731,7 +725,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -803,7 +797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -976,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1344,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1683,11 +1677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2034,11 +2028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:I11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2176,7 +2170,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2199,7 +2193,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2368,10 +2362,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -2664,7 +2658,7 @@
         <v>70</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2766,11 +2760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3126,11 +3120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3315,7 +3309,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3494,7 +3488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/스키마 폼_김수진.xlsx
+++ b/스키마 폼_김수진.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codvill\Desktop\커리큘럼\신규 new\pj\ERP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5FCB3-AF8A-404A-A48F-7A0668D688A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" activeTab="4"/>
+    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구성" sheetId="19" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
   <si>
     <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -502,13 +508,21 @@
   </si>
   <si>
     <t>사용:y , 잠금: n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_register_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,9 +699,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -725,7 +739,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -797,7 +811,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -970,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1338,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1677,7 +1691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2028,7 +2042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2362,11 +2376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2707,13 +2721,21 @@
       <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2760,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3120,11 +3142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3488,7 +3510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/스키마 폼_김수진.xlsx
+++ b/스키마 폼_김수진.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codvill\Desktop\커리큘럼\신규 new\pj\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5FCB3-AF8A-404A-A48F-7A0668D688A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5437B56F-4C74-4099-AB47-72FACB2CA453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구성" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="126">
   <si>
     <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AUTO_INCREMEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_file</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -516,6 +512,14 @@
   </si>
   <si>
     <t>회원가입일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 유형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +992,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F9" sqref="F9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1046,7 +1050,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1115,22 +1119,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1138,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
@@ -1159,10 +1163,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="2" t="s">
@@ -1177,10 +1181,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1198,10 +1202,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
@@ -1219,10 +1223,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
@@ -1240,10 +1244,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1355,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1414,7 +1418,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1483,22 +1487,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1506,10 +1510,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -1519,7 +1523,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1527,10 +1531,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -1540,7 +1544,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1573,27 +1577,43 @@
       <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -1695,7 +1715,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I9" sqref="F9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1753,7 +1773,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1781,7 +1801,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1824,22 +1844,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1847,10 +1867,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
@@ -1862,7 +1882,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1870,10 +1890,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -1883,7 +1903,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1891,20 +1911,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2104,7 +2124,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2132,7 +2152,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -2175,21 +2195,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2200,19 +2220,19 @@
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2379,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2438,7 +2458,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2466,7 +2486,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -2512,19 +2532,19 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2532,10 +2552,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="2" t="s">
@@ -2552,15 +2572,15 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>25</v>
@@ -2573,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
@@ -2594,15 +2614,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>23</v>
@@ -2615,15 +2635,15 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>23</v>
@@ -2636,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -2649,7 +2669,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2657,22 +2677,22 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2680,22 +2700,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2703,10 +2723,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2722,10 +2742,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2844,7 +2864,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2872,7 +2892,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -2915,22 +2935,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2938,21 +2958,21 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2960,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -2975,7 +2995,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2983,15 +3003,15 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>25</v>
@@ -3014,7 +3034,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3285,12 +3305,12 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3331,7 +3351,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3349,7 +3369,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>

--- a/스키마 폼_김수진.xlsx
+++ b/스키마 폼_김수진.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codvill\Desktop\커리큘럼\신규 new\pj\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5437B56F-4C74-4099-AB47-72FACB2CA453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0492633B-773A-4325-9B04-0B133C244901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="구성" sheetId="19" r:id="rId1"/>
-    <sheet name="콘텐츠" sheetId="18" r:id="rId2"/>
-    <sheet name="그룹" sheetId="17" r:id="rId3"/>
-    <sheet name="그룹 사용자" sheetId="16" r:id="rId4"/>
-    <sheet name="유저" sheetId="15" r:id="rId5"/>
-    <sheet name="파일" sheetId="13" r:id="rId6"/>
-    <sheet name="게시판" sheetId="11" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId8"/>
+    <sheet name="구성 new" sheetId="20" r:id="rId1"/>
+    <sheet name="구성" sheetId="19" r:id="rId2"/>
+    <sheet name="콘텐츠" sheetId="18" r:id="rId3"/>
+    <sheet name="그룹" sheetId="17" r:id="rId4"/>
+    <sheet name="그룹 사용자" sheetId="16" r:id="rId5"/>
+    <sheet name="유저" sheetId="15" r:id="rId6"/>
+    <sheet name="파일" sheetId="13" r:id="rId7"/>
+    <sheet name="게시판" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="131">
   <si>
     <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -520,6 +521,26 @@
   </si>
   <si>
     <t>콘텐츠 유형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성 콘텐츠 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar/pie/line 선택</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -988,11 +1009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510B7AB0-56EF-4EFC-AA64-5DA35BC4B216}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1142,10 +1163,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
@@ -1156,7 +1177,9 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -1356,11 +1379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1418,7 +1441,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1487,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -1510,67 +1533,80 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>125</v>
+      <c r="B11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="7">
+        <v>100</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="2">
+        <v>100</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1578,42 +1614,42 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="H14" s="2">
+        <v>300</v>
+      </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="H15" s="2">
+        <v>200</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -1711,6 +1747,361 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="22" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
@@ -2061,7 +2452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
@@ -2395,7 +2786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
@@ -2801,7 +3192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
@@ -3161,7 +3552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
@@ -3529,7 +3920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/스키마 폼_김수진.xlsx
+++ b/스키마 폼_김수진.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codvill\Desktop\커리큘럼\신규 new\pj\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0492633B-773A-4325-9B04-0B133C244901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E9189-9837-464C-8F6A-010D06F6AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구성 new" sheetId="20" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="132">
   <si>
     <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -541,6 +541,10 @@
   </si>
   <si>
     <t>bar/pie/line 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1012,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510B7AB0-56EF-4EFC-AA64-5DA35BC4B216}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -2791,7 +2795,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3556,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3716,7 +3720,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -3737,7 +3741,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>

--- a/스키마 폼_김수진.xlsx
+++ b/스키마 폼_김수진.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codvill\Desktop\커리큘럼\신규 new\pj\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E9189-9837-464C-8F6A-010D06F6AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6107E34-B4DD-4EFC-8D02-10B48C1DAB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1695" windowWidth="26310" windowHeight="13785" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27585" yWindow="1140" windowWidth="26310" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구성 new" sheetId="20" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="135">
   <si>
     <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -545,6 +545,18 @@
   </si>
   <si>
     <t>varchar(4000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성 수정날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1016,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510B7AB0-56EF-4EFC-AA64-5DA35BC4B216}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>105</v>
@@ -1177,7 +1189,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1291,13 +1303,21 @@
       <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2795,7 +2815,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F19" sqref="F19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3560,8 +3580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
